--- a/biology/Botanique/Feijoada/Feijoada.xlsx
+++ b/biology/Botanique/Feijoada/Feijoada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La feijoada est un plat très populaire au Brésil, Angola, Mozambique, Cap-Vert, Guinée-Bissau, Timor oriental, Macau et au Portugal, à base de haricots (feijão) et généralement de viande de porc. Consiste en un ragoût de haricots noirs (feijão preto), normalement servi avec de la viande et du riz blanc. La feijoada est souvent servie le samedi au restaurant, elle est l'occasion de réunions familiales et de rassemblements d'amis. D'un coût peu élevé, elle est appréciée par toutes les classes sociales[1].
-L'idée d'un ragoût de viande (porc) et de légumineuses remonte à la cuisine romaine antique[2]. Le plat s'est répandu avec l'Empire romain et a donné naissance à des plats tels que le cassoulet français, le cassoeula milanais, le fasole cu cârnați roumain, la fabada asturiana du nord-ouest de l'Espagne, le cocido madrileño et l'olla podrida espagnols, et la feijoada de la province de Minho au nord du Portugal[3].
-Les haricots noirs ont été domestiqués par les peuples autochtones des Amériques[4]. Bon marché et faciles à cultiver, ils sont devenus un aliment de base chez les colons européens au Brésil. Les classes supérieures et les pauvres mangeaient des haricots noirs, mais les classes supérieures les appréciaient particulièrement avec un assortiment de viande et de légumes, comme la feijoada. En revanche, les pauvres et les esclaves mangeaient généralement un mélange de haricots noirs et de farine de manioc.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feijoada est un plat très populaire au Brésil, Angola, Mozambique, Cap-Vert, Guinée-Bissau, Timor oriental, Macau et au Portugal, à base de haricots (feijão) et généralement de viande de porc. Consiste en un ragoût de haricots noirs (feijão preto), normalement servi avec de la viande et du riz blanc. La feijoada est souvent servie le samedi au restaurant, elle est l'occasion de réunions familiales et de rassemblements d'amis. D'un coût peu élevé, elle est appréciée par toutes les classes sociales.
+L'idée d'un ragoût de viande (porc) et de légumineuses remonte à la cuisine romaine antique. Le plat s'est répandu avec l'Empire romain et a donné naissance à des plats tels que le cassoulet français, le cassoeula milanais, le fasole cu cârnați roumain, la fabada asturiana du nord-ouest de l'Espagne, le cocido madrileño et l'olla podrida espagnols, et la feijoada de la province de Minho au nord du Portugal.
+Les haricots noirs ont été domestiqués par les peuples autochtones des Amériques. Bon marché et faciles à cultiver, ils sont devenus un aliment de base chez les colons européens au Brésil. Les classes supérieures et les pauvres mangeaient des haricots noirs, mais les classes supérieures les appréciaient particulièrement avec un assortiment de viande et de légumes, comme la feijoada. En revanche, les pauvres et les esclaves mangeaient généralement un mélange de haricots noirs et de farine de manioc.
 Il existe plusieurs versions de ce plat, la version brésilienne et la version portugaise (dont la Transmontana par exemple). 
 Au Portugal, le plat se prépare avec une base de haricots rouges ou blanc alors qu'au Brésil, on utilisera des haricots noirs.
 La première feijoada brésilienne date du 2 mars 1827 et a été publiée dans un journal, le Diario de Pernambuco, dans la ville de Recife, informant que dans la Locanda da Aguia de Ouro, dans la Rue Das Cruzes, tous les jeudis serait servie une excellente feijoada brésilienne complète à prix très abordable (« excelente feijoada à brasileira tudo por preço cômodo »).
